--- a/Unidad 4/P5_Asociador_Lineal/Instancia_Ejemplo1.xlsx
+++ b/Unidad 4/P5_Asociador_Lineal/Instancia_Ejemplo1.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alejandrogarciaruiz/Desktop/PIP_2024_3/Programas/U3_Clase/Asociador_Lineal/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alejandrogarciaruiz/Desktop/PIP_2025_1_Eq_0_I/Unidad 4/P5_Asociador_Lineal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CB54C77-6BD9-FA4E-B87E-C4ADC50700CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFAD3FF2-7043-5941-BCC2-3E2F874A8293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="760" windowWidth="29600" windowHeight="15820" xr2:uid="{5D9FA4AE-9CF3-4BB0-8541-E4FEE9ACE7FC}"/>
+    <workbookView xWindow="4160" yWindow="760" windowWidth="26240" windowHeight="14880" activeTab="1" xr2:uid="{5D9FA4AE-9CF3-4BB0-8541-E4FEE9ACE7FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="47">
   <si>
     <t>ID</t>
   </si>
@@ -133,6 +134,48 @@
   </si>
   <si>
     <t>Nombre 9</t>
+  </si>
+  <si>
+    <t>TIEMPO</t>
+  </si>
+  <si>
+    <t>GENTE</t>
+  </si>
+  <si>
+    <t>DISTANCIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLASE </t>
+  </si>
+  <si>
+    <t>DINERO</t>
+  </si>
+  <si>
+    <t>Feria</t>
+  </si>
+  <si>
+    <t>Playa</t>
+  </si>
+  <si>
+    <t>Cine</t>
+  </si>
+  <si>
+    <t>Mínimo 4 atributos</t>
+  </si>
+  <si>
+    <t>Mínimo 3 clases</t>
+  </si>
+  <si>
+    <t>Ej.</t>
+  </si>
+  <si>
+    <t>20 feria</t>
+  </si>
+  <si>
+    <t>20 playa</t>
+  </si>
+  <si>
+    <t>20 cine</t>
   </si>
 </sst>
 </file>
@@ -210,7 +253,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -222,6 +265,9 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -242,7 +288,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -540,8 +586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{085510A3-C276-47B6-BB5B-CC503AD90EA4}">
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView zoomScale="182" zoomScaleNormal="130" workbookViewId="0">
+      <selection sqref="A1:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1099,4 +1145,185 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D39F0592-9E3B-6447-A022-BD42463602AE}">
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="193" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="9"/>
+      <c r="G1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="1">
+        <v>100</v>
+      </c>
+      <c r="C2" s="1">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2</v>
+      </c>
+      <c r="F2" s="9"/>
+      <c r="G2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="1">
+        <v>500</v>
+      </c>
+      <c r="C3" s="1">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1">
+        <v>10</v>
+      </c>
+      <c r="F3" s="9"/>
+      <c r="G3" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="1">
+        <v>150</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>4</v>
+      </c>
+      <c r="F4" s="9"/>
+      <c r="G4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="1">
+        <v>300</v>
+      </c>
+      <c r="C5" s="1">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="I6" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="I7" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="I8" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Unidad 4/P5_Asociador_Lineal/Instancia_Ejemplo1.xlsx
+++ b/Unidad 4/P5_Asociador_Lineal/Instancia_Ejemplo1.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alejandrogarciaruiz/Desktop/PIP_2025_1_Eq_0_I/Unidad 4/P5_Asociador_Lineal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFAD3FF2-7043-5941-BCC2-3E2F874A8293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59372104-A9BE-C141-A00B-5B29A82AFB0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4160" yWindow="760" windowWidth="26240" windowHeight="14880" activeTab="1" xr2:uid="{5D9FA4AE-9CF3-4BB0-8541-E4FEE9ACE7FC}"/>
+    <workbookView xWindow="17260" yWindow="5760" windowWidth="26240" windowHeight="14780" activeTab="1" xr2:uid="{5D9FA4AE-9CF3-4BB0-8541-E4FEE9ACE7FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$G$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="54">
   <si>
     <t>ID</t>
   </si>
@@ -176,6 +179,27 @@
   </si>
   <si>
     <t>20 cine</t>
+  </si>
+  <si>
+    <t>Ejercicio 1. Esquema</t>
+  </si>
+  <si>
+    <t>Ejercicio 2. Tabla</t>
+  </si>
+  <si>
+    <t>CINE</t>
+  </si>
+  <si>
+    <t>FERIA</t>
+  </si>
+  <si>
+    <t>PLAYA</t>
+  </si>
+  <si>
+    <t>Ejercicio 3…</t>
+  </si>
+  <si>
+    <t>Ejercicio 4…</t>
   </si>
 </sst>
 </file>
@@ -197,7 +221,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -240,6 +264,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -253,7 +283,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -264,10 +294,19 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -905,22 +944,22 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="J12" s="8" t="s">
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="J12" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
     </row>
@@ -1149,15 +1188,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D39F0592-9E3B-6447-A022-BD42463602AE}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="193" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="C19" sqref="C19:F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1173,7 +1215,7 @@
       <c r="E1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="9"/>
+      <c r="F1" s="8"/>
       <c r="G1" s="1" t="s">
         <v>36</v>
       </c>
@@ -1181,100 +1223,100 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B2" s="1">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="C2" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2" s="1">
-        <v>2</v>
-      </c>
-      <c r="F2" s="9"/>
+        <v>4</v>
+      </c>
+      <c r="F2" s="8"/>
       <c r="G2" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="1">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="C3" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E3" s="1">
-        <v>10</v>
-      </c>
-      <c r="F3" s="9"/>
+        <v>2</v>
+      </c>
+      <c r="F3" s="8"/>
       <c r="G3" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B4" s="1">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="C4" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E4" s="1">
-        <v>4</v>
-      </c>
-      <c r="F4" s="9"/>
+        <v>3</v>
+      </c>
+      <c r="F4" s="8"/>
       <c r="G4" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I4" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B5" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="C5" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E5" s="1">
-        <v>3</v>
-      </c>
-      <c r="F5" s="9"/>
+        <v>10</v>
+      </c>
+      <c r="F5" s="8"/>
       <c r="G5" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>28</v>
       </c>
@@ -1283,7 +1325,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>29</v>
       </c>
@@ -1292,7 +1334,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>30</v>
       </c>
@@ -1301,7 +1343,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>31</v>
       </c>
@@ -1312,7 +1354,7 @@
       <c r="F9" s="3"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>32</v>
       </c>
@@ -1323,7 +1365,200 @@
       <c r="F10" s="3"/>
       <c r="G10" s="2"/>
     </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H15" t="s">
+        <v>49</v>
+      </c>
+      <c r="I15" s="3">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H16" t="s">
+        <v>50</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16" s="3">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H17" t="s">
+        <v>51</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B18" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="1">
+        <v>150</v>
+      </c>
+      <c r="D19" s="1">
+        <v>100</v>
+      </c>
+      <c r="E19" s="1">
+        <v>300</v>
+      </c>
+      <c r="F19" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2</v>
+      </c>
+      <c r="D20" s="1">
+        <v>3</v>
+      </c>
+      <c r="E20" s="1">
+        <v>5</v>
+      </c>
+      <c r="F20" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1">
+        <v>2</v>
+      </c>
+      <c r="E21" s="1">
+        <v>3</v>
+      </c>
+      <c r="F21" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="1">
+        <v>4</v>
+      </c>
+      <c r="D22" s="1">
+        <v>2</v>
+      </c>
+      <c r="E22" s="1">
+        <v>3</v>
+      </c>
+      <c r="F22" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C23" s="8">
+        <v>1</v>
+      </c>
+      <c r="D23" s="11">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="F23" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C24" s="8">
+        <v>0</v>
+      </c>
+      <c r="D24" s="11">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C25" s="8">
+        <v>0</v>
+      </c>
+      <c r="D25" s="11">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+      <c r="F25" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:G1" xr:uid="{D39F0592-9E3B-6447-A022-BD42463602AE}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G10">
+      <sortCondition ref="G1:G10"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>